--- a/稽核/隆回/仓库/礼炮汇总表.xlsx
+++ b/稽核/隆回/仓库/礼炮汇总表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,11 +794,11 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20210105004</v>
+        <v>20210105011</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>23:31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -808,17 +808,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>钻石8</t>
+          <t>PARTY9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>销-9部</t>
+          <t>销-5部</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>散客</t>
+          <t>邓琳</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -841,11 +841,11 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20210105011</v>
+        <v>20210105004</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23:31</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PARTY9</t>
+          <t>钻石8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>销-5部</t>
+          <t>销-9部</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>邓琳</t>
+          <t>散客</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -888,7 +888,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20210105013</v>
+        <v>20210105019</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -902,29 +902,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>钻石7</t>
+          <t>总裁9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>销-2部</t>
+          <t>销-5部</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>郑小龙</t>
+          <t>邓琳</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -935,7 +935,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20210105019</v>
+        <v>20210105013</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -949,29 +949,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>总裁9</t>
+          <t>钻石7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>销-5部</t>
+          <t>销-2部</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>邓琳</t>
+          <t>郑小龙</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>02:04</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1217,11 +1217,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20210108001</v>
+        <v>20210108036</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>02:54</t>
+          <t>00:16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1231,21 +1231,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>外卖台</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+          <t>钻石6</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>销-8部</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>陈波</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>围台酒水</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1256,11 +1264,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20210108036</v>
+        <v>20210108031</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>00:16</t>
+          <t>02:04</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1270,7 +1278,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>钻石6</t>
+          <t>钻石2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1280,19 +1288,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>陈波</t>
+          <t>蒋海念</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1303,11 +1311,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20210108031</v>
+        <v>20210108001</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>02:54</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1317,29 +1325,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>钻石2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>销-8部</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>蒋海念</t>
-        </is>
-      </c>
+          <t>外卖台</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>围台酒水</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1350,11 +1350,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20210108036</v>
+        <v>20210108031</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>00:06</t>
+          <t>02:31</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>钻石6</t>
+          <t>钻石2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>陈波</t>
+          <t>蒋海念</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="I20" t="n">
-        <v>500</v>
+        <v>-200</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1397,11 +1397,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20210108008</v>
+        <v>20210108036</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01:56</t>
+          <t>00:06</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>总裁3</t>
+          <t>钻石6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1421,19 +1421,19 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>刘雅诗</t>
+          <t>陈波</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>pos</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1444,11 +1444,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20210108051</v>
+        <v>20210108008</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23:49</t>
+          <t>01:56</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1458,22 +1458,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>V19</t>
+          <t>总裁3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>前-自来客</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>自来客</t>
+          <t>刘雅诗</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>pos</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1491,11 +1491,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20210108031</v>
+        <v>20210108051</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>02:31</t>
+          <t>23:49</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1505,29 +1505,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>钻石2</t>
+          <t>V19</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>前-自来客</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>蒋海念</t>
+          <t>自来客</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -2219,11 +2219,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20210112022</v>
+        <v>20210112001</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>23:06</t>
+          <t>02:28</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2233,29 +2233,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>总裁8</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>市场部</t>
-        </is>
-      </c>
+          <t>外卖台</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>周楠</t>
+          <t>散客</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>围台酒水</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -2266,11 +2262,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20210112001</v>
+        <v>20210112022</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>02:28</t>
+          <t>23:06</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2280,25 +2276,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>外卖台</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>总裁8</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>散客</t>
+          <t>周楠</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>围台酒水</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2309,11 +2309,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20210112052</v>
+        <v>20210112009</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>02:08</t>
+          <t>23:29</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>总裁10</t>
+          <t>总裁3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>罗建飞</t>
+          <t>刘雅诗</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2356,11 +2356,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20210112009</v>
+        <v>20210112052</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>23:29</t>
+          <t>02:08</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2370,29 +2370,29 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>总裁3</t>
+          <t>总裁10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>刘雅诗</t>
+          <t>罗建飞</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I42" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2413,41 +2413,41 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>袁晓春</t>
+          <t>范晓杰</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>20210203044</v>
+        <v>20210203032</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>21:25</t>
+          <t>23:43</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>总裁9</t>
+          <t>总裁1</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>商务部</t>
+          <t>销-9部</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44">
@@ -2462,7 +2462,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>黄生权</t>
+          <t>散客</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2471,25 +2471,25 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>20210203041</v>
+        <v>20210203027</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>22:10</t>
+          <t>00:12</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>V05</t>
+          <t>总裁11</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>散客</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -2511,41 +2511,41 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>郑小龙</t>
+          <t>李龙江</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>pos,微信,现金</t>
+          <t>会员本金,现金</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>20210203023</v>
+        <v>20210203035</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>02:03</t>
+          <t>21:51</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>PARTY2</t>
+          <t>PARTY9</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>销-2部</t>
+          <t>礼宾部</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2560,34 +2560,34 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>袁鹏</t>
+          <t>袁晓春</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>pos</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>20210203058</v>
+        <v>20210203044</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>23:42</t>
+          <t>21:25</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>V09</t>
+          <t>总裁9</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>商务部</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -2609,12 +2609,12 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>吴天乐</t>
+          <t>黄生权</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>pos</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2622,28 +2622,28 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>20210203062</v>
+        <v>20210203041</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>01:43</t>
+          <t>22:10</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>V03</t>
+          <t>V05</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>销-5部</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2658,41 +2658,41 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>自来客</t>
+          <t>郑小龙</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>pos,微信,现金</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>20210203056</v>
+        <v>20210203023</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>01:39</t>
+          <t>02:03</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>V01</t>
+          <t>PARTY2</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>前-自来客</t>
+          <t>销-2部</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="O48" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="49">
@@ -2707,29 +2707,29 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>欧阳悦</t>
+          <t>袁鹏</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>pos</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>20210203053</v>
+        <v>20210203058</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>23:08</t>
+          <t>23:42</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>总裁8</t>
+          <t>V09</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -2756,41 +2756,41 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>李龙江</t>
+          <t>郑小龙</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>会员本金,现金</t>
+          <t>微信,现金</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>20210203035</v>
+        <v>20210203023</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>21:51</t>
+          <t>23:37</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>PARTY9</t>
+          <t>PARTY2</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>礼宾部</t>
+          <t>销-2部</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51">
@@ -2854,34 +2854,34 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>散客</t>
+          <t>郑小龙</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>pos</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>20210203027</v>
+        <v>20210203023</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>00:12</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>总裁11</t>
+          <t>PARTY2</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>散客</t>
+          <t>销-2部</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -2952,41 +2952,41 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>郑小龙</t>
+          <t>自来客</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>微信,现金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>20210203023</v>
+        <v>20210203056</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>22:38</t>
+          <t>01:39</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>PARTY2</t>
+          <t>V01</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>销-2部</t>
+          <t>前-自来客</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="O54" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
@@ -3001,41 +3001,41 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>范晓杰</t>
+          <t>邓琳</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>20210203032</v>
+        <v>20210203037</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>23:43</t>
+          <t>23:57</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>总裁1</t>
+          <t>666</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>销-9部</t>
+          <t>销-5部</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3050,41 +3050,41 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>郑小龙</t>
+          <t>陈江华</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>微信,现金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>20210203023</v>
+        <v>20210203052</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>23:37</t>
+          <t>23:02</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>PARTY2</t>
+          <t>V16</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>销-2部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3099,12 +3099,12 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>郑小龙</t>
+          <t>吴亚龙</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3112,28 +3112,28 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>20210203023</v>
+        <v>20210203004</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>21:14</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>PARTY2</t>
+          <t>V12</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>销-2部</t>
+          <t>总经办</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58">
@@ -3148,41 +3148,41 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>邓琳</t>
+          <t>郑小龙</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信,现金</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>20210203037</v>
+        <v>20210203023</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>23:57</t>
+          <t>22:38</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>PARTY2</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>销-5部</t>
+          <t>销-2部</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59">
@@ -3197,7 +3197,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>陈江华</t>
+          <t>袁兵</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3210,21 +3210,21 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>20210203052</v>
+        <v>20210203028</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>23:02</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>V16</t>
+          <t>PARTY1</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-6部</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -3246,12 +3246,12 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>吴亚龙</t>
+          <t>欧阳悦</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -3259,28 +3259,28 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>20210203004</v>
+        <v>20210203053</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>21:14</t>
+          <t>23:08</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>V12</t>
+          <t>总裁8</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>总经办</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3295,7 +3295,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>袁兵</t>
+          <t>吴天乐</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3308,28 +3308,28 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>20210203028</v>
+        <v>20210203062</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>01:43</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>PARTY1</t>
+          <t>V03</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>销-6部</t>
+          <t>销-5部</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62">
@@ -3344,12 +3344,12 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>黄佳</t>
+          <t>史若惜</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>pos,会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -3357,21 +3357,21 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>20210204058</v>
+        <v>20210204045</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>23:01</t>
+          <t>21:58</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>钻石3</t>
+          <t>总裁5</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>销-9部</t>
+          <t>销-5部</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -3393,12 +3393,12 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>郑小龙</t>
+          <t>周伟</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>pos,会员本金</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -3406,16 +3406,16 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>20210204043</v>
+        <v>20210204042</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>23:48</t>
+          <t>21:41</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>总裁10</t>
+          <t>总裁2</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -3424,10 +3424,10 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3442,7 +3442,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>史若惜</t>
+          <t>陈辰子</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3455,21 +3455,21 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>20210204045</v>
+        <v>20210204018</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>21:58</t>
+          <t>20:53</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>总裁5</t>
+          <t>总裁6</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>销-5部</t>
+          <t>销-6部</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -3491,12 +3491,12 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>郑小龙</t>
+          <t>张彪</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>会员本金,现金</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3504,28 +3504,28 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>20210204043</v>
+        <v>20210204064</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>22:42</t>
+          <t>23:37</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>总裁10</t>
+          <t>PARTY10</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>销-2部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3540,12 +3540,12 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>袁鹏</t>
+          <t>郑小龙</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -3553,28 +3553,28 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>20210204074</v>
+        <v>20210204043</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>00:49</t>
+          <t>23:48</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>总裁5</t>
+          <t>总裁10</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>销-2部</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67">
@@ -3638,12 +3638,12 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>张彪</t>
+          <t>刘玲</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>会员本金,现金</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -3651,21 +3651,21 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>20210204064</v>
+        <v>20210204048</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>23:37</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>PARTY10</t>
+          <t>V20</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-9部</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -3736,12 +3736,12 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>陈辰子</t>
+          <t>袁鹏</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -3749,21 +3749,21 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>20210204018</v>
+        <v>20210204065</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>20:53</t>
+          <t>23:33</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>总裁6</t>
+          <t>总裁7</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>销-6部</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -3785,12 +3785,12 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>周伟</t>
+          <t>郑小龙</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>pos,会员本金</t>
+          <t>pos</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -3798,16 +3798,16 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>20210204042</v>
+        <v>20210204043</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>21:41</t>
+          <t>23:45</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>总裁2</t>
+          <t>总裁10</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -3834,12 +3834,12 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>刘玲</t>
+          <t>黄佳</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>pos,会员本金</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -3847,16 +3847,16 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>20210204048</v>
+        <v>20210204058</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>23:01</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>V20</t>
+          <t>钻石3</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -3896,16 +3896,16 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>20210204065</v>
+        <v>20210204074</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>23:33</t>
+          <t>00:49</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>总裁7</t>
+          <t>总裁5</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>pos</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>23:45</t>
+          <t>22:42</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -3981,7 +3981,7 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>散客</t>
+          <t>肖豪</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3990,25 +3990,25 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>20210205055</v>
+        <v>20210205026</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>00:20</t>
+          <t>20:56</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>V08</t>
+          <t>总裁2</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>散客</t>
+          <t>销-6部</t>
         </is>
       </c>
       <c r="N75" t="n">
@@ -4030,12 +4030,12 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>自来客</t>
+          <t>陈波</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -4043,21 +4043,21 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>20210205060</v>
+        <v>20210205039</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>23:15</t>
+          <t>00:28</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>钻石1</t>
+          <t>888</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>前-自来客</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -4079,41 +4079,41 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>史若惜</t>
+          <t>陈波</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信,现金</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>20210205065</v>
+        <v>20210205039</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>01:08</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>总裁1</t>
+          <t>888</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>销-5部</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="78">
@@ -4128,34 +4128,34 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>黄不平</t>
+          <t>散客</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>pos</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>20210205028</v>
+        <v>20210205055</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>21:06</t>
+          <t>00:20</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>钻石3</t>
+          <t>V08</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>销-3部</t>
+          <t>散客</t>
         </is>
       </c>
       <c r="N78" t="n">
@@ -4177,12 +4177,12 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>欧阳悦</t>
+          <t>自来客</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -4190,21 +4190,21 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>20210205049</v>
+        <v>20210205060</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>21:42</t>
+          <t>23:15</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>总裁3</t>
+          <t>钻石1</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>前-自来客</t>
         </is>
       </c>
       <c r="N79" t="n">
@@ -4226,12 +4226,12 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>蒋海念</t>
+          <t>史若惜</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -4239,21 +4239,21 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>20210205054</v>
+        <v>20210205065</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>22:15</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>钻石2</t>
+          <t>总裁1</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>销-5部</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -4275,41 +4275,41 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>陈波</t>
+          <t>陈江华</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>微信,现金</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>20210205039</v>
+        <v>20210205007</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>01:08</t>
+          <t>21:16</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>V01</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4324,12 +4324,12 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>陈波</t>
+          <t>边藏</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,现金</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -4337,21 +4337,21 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>20210205039</v>
+        <v>20210205063</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>00:28</t>
+          <t>23:47</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>PARTY12</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>销-6部</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -4373,12 +4373,12 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>肖豪</t>
+          <t>袁鹏</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>pos</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -4386,21 +4386,21 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>20210205026</v>
+        <v>20210205041</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>20:56</t>
+          <t>23:01</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>总裁2</t>
+          <t>总裁5</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>销-6部</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -4422,7 +4422,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>陈江华</t>
+          <t>陈健</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4435,16 +4435,16 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>20210205007</v>
+        <v>20210205031</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>21:16</t>
+          <t>22:03</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>V01</t>
+          <t>总裁6</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -4471,12 +4471,12 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>边藏</t>
+          <t>蒋海念</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>会员本金,现金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -4484,21 +4484,21 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>20210205063</v>
+        <v>20210205054</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>23:47</t>
+          <t>22:15</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>PARTY12</t>
+          <t>钻石2</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>销-6部</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="N85" t="n">
@@ -4520,12 +4520,12 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>袁鹏</t>
+          <t>欧阳悦</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -4533,16 +4533,16 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>20210205041</v>
+        <v>20210205049</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>23:01</t>
+          <t>21:42</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>总裁5</t>
+          <t>总裁3</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -4569,12 +4569,12 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>陈健</t>
+          <t>黄不平</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -4582,21 +4582,21 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>20210205031</v>
+        <v>20210205028</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>22:03</t>
+          <t>21:06</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>总裁6</t>
+          <t>钻石3</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-3部</t>
         </is>
       </c>
       <c r="N87" t="n">
@@ -4618,34 +4618,34 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>蒋海念</t>
+          <t>黄彩芳</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>pos,会员本金</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>20210206054</v>
+        <v>20210206064</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>22:40</t>
+          <t>23:56</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>V13</t>
+          <t>钻石2</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>会员中心</t>
         </is>
       </c>
       <c r="N88" t="n">
@@ -4667,34 +4667,34 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>吴元龙</t>
+          <t>自来客</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>pos,会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>20210206051</v>
+        <v>20210206049</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>22:26</t>
+          <t>22:51</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>总裁2</t>
+          <t>V10</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>舞台部</t>
+          <t>前-自来客</t>
         </is>
       </c>
       <c r="N89" t="n">
@@ -4716,34 +4716,34 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>自来客</t>
+          <t>蒋海念</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>20210206049</v>
+        <v>20210206054</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>22:51</t>
+          <t>22:40</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V13</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>前-自来客</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="N90" t="n">
@@ -4814,7 +4814,7 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>黄彩芳</t>
+          <t>吴元龙</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4827,21 +4827,21 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>20210206064</v>
+        <v>20210206051</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>23:56</t>
+          <t>22:26</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>钻石2</t>
+          <t>总裁2</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>会员中心</t>
+          <t>舞台部</t>
         </is>
       </c>
       <c r="N92" t="n">
@@ -4912,12 +4912,12 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>张彪</t>
+          <t>郑小龙</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>pos</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -4925,28 +4925,28 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>20210206032</v>
+        <v>20210206039</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>21:26</t>
+          <t>22:23</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>总裁5</t>
+          <t>V09</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-2部</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
@@ -4961,12 +4961,12 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>罗建飞</t>
+          <t>张彪</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>pos</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -4974,16 +4974,16 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>20210206010</v>
+        <v>20210206032</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>20:42</t>
+          <t>21:26</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>V18</t>
+          <t>总裁5</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -5010,41 +5010,41 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>郑小龙</t>
+          <t>散客</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>pos</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>20210206039</v>
+        <v>20210206060</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>22:23</t>
+          <t>00:24</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>V09</t>
+          <t>钻石5</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>销-2部</t>
+          <t>散客</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -5059,34 +5059,34 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>散客</t>
+          <t>罗建飞</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>pos</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>20210206060</v>
+        <v>20210206010</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>00:24</t>
+          <t>20:42</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>钻石5</t>
+          <t>V18</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>散客</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="N97" t="n">
@@ -5108,41 +5108,41 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>陈江华</t>
+          <t>于海峰外</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>pos</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>20210207061</v>
+        <v>20210207005</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>01:11</t>
+          <t>19:59</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>PARTY11</t>
+          <t>总裁3</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>总经办</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -5157,34 +5157,34 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>于海峰外</t>
+          <t>蒋海念</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>20210207005</v>
+        <v>20210207015</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>19:59</t>
+          <t>20:41</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>总裁3</t>
+          <t>总裁5</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>总经办</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="N99" t="n">
@@ -5206,29 +5206,29 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>蒋海念</t>
+          <t>欧阳悦</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>会员本金</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>20210207015</v>
+        <v>20210207034</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>20:41</t>
+          <t>21:32</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>总裁5</t>
+          <t>钻石1</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -5402,12 +5402,12 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>欧阳悦</t>
+          <t>陈江华</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>会员本金</t>
+          <t>pos</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -5415,28 +5415,28 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>20210207034</v>
+        <v>20210207061</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>21:32</t>
+          <t>01:11</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>钻石1</t>
+          <t>PARTY11</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
@@ -5598,7 +5598,7 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>陈江华</t>
+          <t>钱长</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5607,32 +5607,32 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>20210207061</v>
+        <v>20210207067</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>00:25</t>
+          <t>00:12</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>PARTY11</t>
+          <t>总裁1</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>市场部</t>
+          <t>销-3部</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -5647,41 +5647,41 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>蒋海念</t>
+          <t>陈江华</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>会员本金,微信</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>20210207027</v>
+        <v>20210207061</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>21:03</t>
+          <t>00:25</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>总裁10</t>
+          <t>PARTY11</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>销-8部</t>
+          <t>市场部</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
@@ -5696,34 +5696,34 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>鲁棒伟</t>
+          <t>蒋海念</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>会员本金,微信</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>20210207032</v>
+        <v>20210207027</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>00:11</t>
+          <t>21:03</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>总裁6</t>
+          <t>总裁10</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>总经办</t>
+          <t>销-8部</t>
         </is>
       </c>
       <c r="N110" t="n">
@@ -5745,40 +5745,628 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>钱长</t>
+          <t>鲁棒伟</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>20210207067</v>
+        <v>20210207032</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>00:12</t>
+          <t>00:11</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
+          <t>总裁6</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>总经办</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>郑小龙</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>20210208030</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>23:15</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>PARTY5</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>销-2部</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>50</v>
+      </c>
+      <c r="O112" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>沈彪</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>20210208025</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>00:34</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>PARTY13</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>销-3部</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>50</v>
+      </c>
+      <c r="O113" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>范贵长</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>会员本金</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>20210208059</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>23:47</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>V05</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>销-3部</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>刘玲</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>20210208019</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>21:13</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>总裁9</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>销-9部</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>李龙江</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>微信,现金</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>20210208006</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>22:49</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>总裁6</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>礼宾部</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>陈健</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>会员本金</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>20210208045</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>22:05</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>PARTY9</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>郑小龙</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>20210208030</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>PARTY5</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>销-2部</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>50</v>
+      </c>
+      <c r="O118" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>廖细水</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>会员本金,现金</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>20210208020</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>20:56</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>PARTY11</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>销-9部</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>郭冰</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>会员本金,微信</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>20210208011</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>20:58</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>钻石9</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>市场部</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>张永明</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>20210208008</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>20:35</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
           <t>总裁1</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>销-3部</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>销-8部</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>颜庆发</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>20210208040</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>21:40</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>V17</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>销-8部</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2021-02-08</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>欧阳悦</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>微信</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>20210208062</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>00:21</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>总裁1</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>销-8部</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
         <v>0</v>
       </c>
     </row>
